--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
         <v>1.34</v>
@@ -1153,19 +1153,19 @@
         <v>3.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10.25</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
         <v>37</v>
@@ -1174,10 +1174,10 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.6</v>
@@ -1189,22 +1189,22 @@
         <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI4" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM4" t="n">
         <v>24</v>
@@ -1213,22 +1213,22 @@
         <v>4.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU4" t="n">
         <v>6.7</v>
@@ -1237,19 +1237,19 @@
         <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>45</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1114,19 +1114,19 @@
         <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,79 +1135,79 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W4" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
         <v>37</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
         <v>300</v>
       </c>
       <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>8.75</v>
       </c>
-      <c r="AI4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
       <c r="AK4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM4" t="n">
         <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>24</v>
       </c>
       <c r="AN4" t="n">
         <v>4.9</v>
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>65</v>
@@ -1225,31 +1225,31 @@
         <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW4" t="n">
         <v>4.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>45</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
       </c>
       <c r="I4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.2</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1147,10 +1147,10 @@
         <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="U4" t="n">
         <v>1.55</v>
@@ -1162,19 +1162,19 @@
         <v>11.25</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
@@ -1183,7 +1183,7 @@
         <v>6.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
         <v>45</v>
@@ -1195,40 +1195,40 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.75</v>
       </c>
       <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM4" t="n">
         <v>22</v>
       </c>
-      <c r="AL4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
       <c r="AN4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>6.6</v>
@@ -1237,22 +1237,22 @@
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>2.12</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1144,7 +1144,7 @@
         <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.32</v>
@@ -1159,7 +1159,7 @@
         <v>2.15</v>
       </c>
       <c r="W4" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
@@ -1168,19 +1168,19 @@
         <v>10.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>12.5</v>
@@ -1192,10 +1192,10 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.75</v>
@@ -1207,25 +1207,25 @@
         <v>15.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>5.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1240,16 +1240,16 @@
         <v>4.15</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB4" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -947,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -995,37 +995,37 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1138,13 +1138,13 @@
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
         <v>1.32</v>
@@ -1159,31 +1159,31 @@
         <v>2.15</v>
       </c>
       <c r="W4" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>10.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
         <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>45</v>
@@ -1192,10 +1192,10 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.75</v>
@@ -1207,16 +1207,16 @@
         <v>15.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
         <v>5.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>70</v>
@@ -1225,10 +1225,10 @@
         <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU4" t="n">
         <v>6.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -789,19 +789,19 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
@@ -822,13 +822,13 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>26</v>
@@ -837,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -852,22 +852,22 @@
         <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
@@ -1123,10 +1123,10 @@
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1141,10 +1141,10 @@
         <v>3.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.32</v>
@@ -1174,10 +1174,10 @@
         <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.9</v>
@@ -1195,10 +1195,10 @@
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1210,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
         <v>16</v>
@@ -1228,10 +1228,10 @@
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
@@ -1240,16 +1240,16 @@
         <v>4.15</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB4" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
@@ -1001,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1019,13 +1019,13 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -977,7 +977,7 @@
         <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -995,16 +995,16 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1019,13 +1019,13 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
@@ -947,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -977,7 +977,7 @@
         <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -995,16 +995,16 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1019,13 +1019,13 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.45</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,40 +1135,40 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
         <v>24</v>
@@ -1177,13 +1177,13 @@
         <v>28</v>
       </c>
       <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE4" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>45</v>
@@ -1192,28 +1192,28 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1228,31 +1228,31 @@
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,6 +1261,370 @@
         <v>51</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nVFWn41R</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23:07</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lv2brO9r</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23:11</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1117,7 +1117,7 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
@@ -1126,7 +1126,7 @@
         <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1165,10 +1165,10 @@
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
         <v>24</v>
@@ -1201,7 +1201,7 @@
         <v>8.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1210,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1222,7 +1222,7 @@
         <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
@@ -1240,7 +1240,7 @@
         <v>4.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -1117,16 +1117,16 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1165,10 +1165,10 @@
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
         <v>24</v>
@@ -1180,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>45</v>
@@ -1201,7 +1201,7 @@
         <v>8.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1210,7 +1210,7 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>16</v>
@@ -1222,7 +1222,7 @@
         <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
@@ -1240,7 +1240,7 @@
         <v>4.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1258,370 +1258,6 @@
         <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>nVFWn41R</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>09/10/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23:07</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lv2brO9r</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>09/10/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23:11</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sacramento Republic</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Monterey Bay</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,34 +1111,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>2.15</v>
       </c>
       <c r="L4" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
@@ -1153,34 +1153,34 @@
         <v>3.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>11</v>
       </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z4" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1198,61 +1198,61 @@
         <v>11.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM4" t="n">
         <v>22</v>
       </c>
-      <c r="AL4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -765,22 +765,22 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1123,10 +1123,10 @@
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1222,13 +1222,13 @@
         <v>80</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU4" t="n">
         <v>6.5</v>
@@ -1246,7 +1246,7 @@
         <v>16.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA4" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -783,10 +783,10 @@
         <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,148 +1111,148 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.65</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>11.5</v>
+        <v>1.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.65</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.55</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>11.25</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AH4" t="n">
         <v>9.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="n">
         <v>21</v>
       </c>
-      <c r="AL4" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.2</v>
+        <v>4.55</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR4" t="n">
         <v>110</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.87</v>
+        <v>2.42</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.15</v>
+        <v>4.55</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -765,22 +765,22 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -1120,13 +1120,13 @@
         <v>2.65</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
         <v>8.300000000000001</v>
@@ -1159,25 +1159,25 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1192,10 +1192,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
@@ -1204,31 +1204,31 @@
         <v>32</v>
       </c>
       <c r="AL4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AM4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU4" t="n">
         <v>6.7</v>
@@ -1240,19 +1240,19 @@
         <v>4.55</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>2.65</v>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
         <v>8.300000000000001</v>
@@ -1150,16 +1150,16 @@
         <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U4" t="n">
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X4" t="n">
         <v>13.5</v>
@@ -1174,10 +1174,10 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1192,25 +1192,25 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
@@ -1219,19 +1219,19 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
@@ -1243,16 +1243,16 @@
         <v>14.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,46 +1111,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U4" t="n">
         <v>1.65</v>
@@ -1159,22 +1159,22 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
         <v>30</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>28</v>
       </c>
       <c r="AC4" t="n">
         <v>9.25</v>
@@ -1192,67 +1192,67 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI4" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>22</v>
       </c>
-      <c r="AM4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AX4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1114,28 +1114,28 @@
         <v>2.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N4" t="n">
         <v>1.06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>2.95</v>
@@ -1201,7 +1201,7 @@
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1210,49 +1210,49 @@
         <v>28</v>
       </c>
       <c r="AN4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="n">
         <v>4.55</v>
       </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.45</v>
-      </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -777,16 +777,16 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -837,10 +837,10 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
         <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
         <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
@@ -1159,10 +1159,10 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
         <v>9.75</v>
@@ -1177,10 +1177,10 @@
         <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE4" t="n">
         <v>12.5</v>
@@ -1192,13 +1192,13 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1210,13 +1210,13 @@
         <v>28</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>60</v>
@@ -1231,7 +1231,7 @@
         <v>2.62</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
@@ -1129,22 +1129,22 @@
         <v>3.05</v>
       </c>
       <c r="M4" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.06</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1153,16 +1153,16 @@
         <v>2.47</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W4" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.75</v>
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
@@ -1183,13 +1183,13 @@
         <v>5.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH4" t="n">
         <v>8.5</v>
@@ -1198,7 +1198,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1207,31 +1207,31 @@
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO4" t="n">
         <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
         <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
@@ -1240,16 +1240,16 @@
         <v>4.55</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>55</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -771,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -798,13 +798,13 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -837,19 +837,19 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -938,7 +938,7 @@
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1001,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>65BJiW3D</t>
+          <t>8UHmSCuQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -777,85 +777,85 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AK2" t="n">
         <v>81</v>
       </c>
-      <c r="AG2" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>51</v>
       </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,31 +864,31 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8UHmSCuQ</t>
+          <t>hCptA7hl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,354 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Atl. Morelia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>2.47</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>2.95</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="n">
         <v>9</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AD3" t="n">
         <v>6</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>15</v>
       </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AP3" t="n">
         <v>21</v>
       </c>
-      <c r="AK3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AQ3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AM3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>hCptA7hl</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10/10/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Correcaminos</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Atl. Morelia</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8UHmSCuQ</t>
+          <t>65BJiW3D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -777,85 +777,85 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.62</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
         <v>26</v>
       </c>
-      <c r="AF2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
-        <v>67</v>
-      </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,31 +864,31 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA2" t="n">
         <v>151</v>
       </c>
-      <c r="BA2" t="n">
-        <v>201</v>
-      </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,182 +900,364 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>8UHmSCuQ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>hCptA7hl</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>10/10/2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Correcaminos</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Atl. Morelia</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.05</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>2.47</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.07</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.01</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N4" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>1.31</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>2.9</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.75</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>1.42</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>2.47</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U4" t="n">
         <v>1.7</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V4" t="n">
         <v>1.93</v>
       </c>
-      <c r="W3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
         <v>35</v>
       </c>
-      <c r="AA3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC4" t="n">
         <v>9</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE4" t="n">
         <v>13</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF4" t="n">
         <v>60</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG4" t="n">
         <v>450</v>
       </c>
-      <c r="AH3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AH4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX4" t="n">
         <v>13</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AY4" t="n">
         <v>20</v>
       </c>
-      <c r="AM3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS3" t="n">
+      <c r="AZ4" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB4" t="n">
         <v>250</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -771,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -783,28 +783,28 @@
         <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -816,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,34 +828,34 @@
         <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
         <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,16 +864,16 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -953,10 +953,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -965,28 +965,28 @@
         <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -998,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1019,10 +1019,10 @@
         <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1043,25 +1043,25 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1153,13 +1153,13 @@
         <v>2.47</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1174,31 +1174,31 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK4" t="n">
         <v>27</v>
@@ -1207,16 +1207,16 @@
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO4" t="n">
         <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>60</v>
@@ -1228,10 +1228,10 @@
         <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
@@ -1240,19 +1240,19 @@
         <v>4.45</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -971,22 +971,22 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
         <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -998,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1022,7 +1022,7 @@
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1055,13 +1055,13 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -947,10 +947,10 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -971,22 +971,22 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -998,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1022,7 +1022,7 @@
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1055,13 +1055,13 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>
@@ -1117,16 +1117,16 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1138,13 +1138,13 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1159,31 +1159,31 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z4" t="n">
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1192,10 +1192,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1204,52 +1204,52 @@
         <v>27</v>
       </c>
       <c r="AL4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AX4" t="n">
         <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ4" t="n">
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -947,10 +947,10 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -953,10 +953,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -965,19 +965,19 @@
         <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -995,13 +995,13 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1022,7 +1022,7 @@
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1043,10 +1043,10 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1061,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>
@@ -1117,16 +1117,16 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1138,13 +1138,13 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1159,28 +1159,28 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1192,10 +1192,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1204,34 +1204,34 @@
         <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
         <v>2.62</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
@@ -1243,13 +1243,13 @@
         <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
         <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1138,13 +1138,13 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1156,13 +1156,13 @@
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
         <v>30</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1192,10 +1192,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1204,19 +1204,19 @@
         <v>27</v>
       </c>
       <c r="AL4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
         <v>20</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>65</v>
@@ -1228,28 +1228,28 @@
         <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX4" t="n">
         <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ4" t="n">
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1138,13 +1138,13 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1156,13 +1156,13 @@
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1171,19 +1171,19 @@
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1192,10 +1192,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1204,25 +1204,25 @@
         <v>27</v>
       </c>
       <c r="AL4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>19.5</v>
       </c>
-      <c r="AM4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
         <v>200</v>
@@ -1231,7 +1231,7 @@
         <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
@@ -1243,13 +1243,13 @@
         <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -953,10 +953,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1156,10 +1156,10 @@
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1174,16 +1174,16 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1192,22 +1192,22 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
         <v>20</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN4" t="n">
         <v>4.8</v>
@@ -1216,10 +1216,10 @@
         <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
         <v>80</v>
@@ -1231,25 +1231,25 @@
         <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,13 +789,13 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
         <v>6</v>
@@ -804,13 +804,13 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
@@ -822,28 +822,28 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
         <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="n">
         <v>3.25</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -1120,13 +1120,13 @@
         <v>2.47</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,7 +1135,7 @@
         <v>8.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>2.95</v>
@@ -1156,13 +1156,13 @@
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1171,10 +1171,10 @@
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
         <v>9.25</v>
@@ -1192,10 +1192,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1207,52 +1207,52 @@
         <v>20</v>
       </c>
       <c r="AM4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="n">
         <v>4.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
         <v>6.3</v>
       </c>
       <c r="AV4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW4" t="n">
         <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -762,25 +762,25 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -849,7 +849,7 @@
         <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -885,7 +885,7 @@
         <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -953,31 +953,31 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -995,16 +995,16 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1016,19 +1016,19 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1037,16 +1037,16 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1061,13 +1061,13 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA3" t="n">
         <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,7 +1135,7 @@
         <v>8.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
         <v>2.95</v>
@@ -1159,28 +1159,28 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z4" t="n">
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>9.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>12.5</v>
@@ -1192,10 +1192,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1204,31 +1204,31 @@
         <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>4.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
         <v>6.3</v>
@@ -1240,19 +1240,19 @@
         <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,7 +1135,7 @@
         <v>8.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>2.95</v>
@@ -1162,16 +1162,16 @@
         <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
@@ -1192,16 +1192,16 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1213,7 +1213,7 @@
         <v>4.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1228,16 +1228,16 @@
         <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV4" t="n">
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
@@ -783,10 +783,10 @@
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -795,7 +795,7 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>6</v>
@@ -804,25 +804,25 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>900</v>
@@ -843,7 +843,7 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>3.25</v>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -885,7 +885,7 @@
         <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -1114,19 +1114,19 @@
         <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,16 +1135,16 @@
         <v>8.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1159,10 +1159,10 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1174,52 +1174,52 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH4" t="n">
         <v>7.9</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
         <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
         <v>80</v>
@@ -1228,7 +1228,7 @@
         <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU4" t="n">
         <v>6.4</v>
@@ -1243,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -765,10 +765,10 @@
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
         <v>900</v>
@@ -843,10 +843,10 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO2" t="n">
         <v>7.5</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -1114,16 +1114,16 @@
         <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>3.05</v>
@@ -1135,16 +1135,16 @@
         <v>8.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1159,10 +1159,10 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
@@ -1183,43 +1183,43 @@
         <v>5.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>30</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO4" t="n">
         <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
         <v>80</v>
@@ -1240,7 +1240,7 @@
         <v>4.45</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY4" t="n">
         <v>19.5</v>
@@ -1249,10 +1249,10 @@
         <v>55</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -944,13 +944,13 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -965,19 +965,19 @@
         <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -995,16 +995,16 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1016,19 +1016,19 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1037,37 +1037,37 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1120,13 +1120,13 @@
         <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,16 +1135,16 @@
         <v>8.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1159,25 +1159,25 @@
         <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z4" t="n">
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD4" t="n">
         <v>5.9</v>
@@ -1192,40 +1192,40 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="n">
         <v>4.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
         <v>2.6</v>
@@ -1237,22 +1237,22 @@
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -947,10 +947,10 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -995,13 +995,13 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1016,19 +1016,19 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1037,34 +1037,34 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>251</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1153,82 +1153,82 @@
         <v>2.47</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="n">
         <v>4.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
         <v>6.4</v>
@@ -1237,22 +1237,22 @@
         <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1159,28 +1159,28 @@
         <v>1.93</v>
       </c>
       <c r="W4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="n">
         <v>9.25</v>
       </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1192,64 +1192,64 @@
         <v>450</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AM4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-10.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
@@ -959,22 +959,22 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1001,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1010,25 +1010,25 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1037,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1055,16 +1055,16 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
         <v>251</v>
@@ -1111,25 +1111,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
@@ -1138,7 +1138,7 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q4" t="n">
         <v>1.93</v>
@@ -1159,73 +1159,73 @@
         <v>1.93</v>
       </c>
       <c r="W4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT4" t="n">
         <v>2.6</v>
@@ -1237,19 +1237,19 @@
         <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>
